--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/6 Prueba de Saldos Iniciales.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/6 Prueba de Saldos Iniciales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A9120-39EE-43BD-8FDF-769EEBE0CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA8D35-ADAF-4180-ADFD-5DACE35A92D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Diferencias saldos inciales y finales</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                        AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
     <t>F)</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>DERECHOS Y OBLIGACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Prueba de Saldos Iniciales </t>
   </si>
   <si>
     <t>Conclusiion:</t>
@@ -277,6 +271,12 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba de Saldos Iniciales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,9 +526,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,6 +629,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,463 +991,469 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="E4" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" s="46"/>
+      <c r="D4" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="38" t="s">
-        <v>72</v>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="M7" s="12" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="M9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="D14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="D15" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="D16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="C20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="C21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="2:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="2:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:15" ht="36" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="2:15" ht="36" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="C27" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="2:15" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="32" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="29" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="39">
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="38">
         <f>D29-C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="24"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="39">
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="38">
         <f>D30-C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="24"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="23"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="39">
-        <f t="shared" ref="E30:E34" si="0">D31-C31</f>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="38">
+        <f t="shared" ref="E31:E34" si="0">D31-C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="24"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="23"/>
     </row>
     <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="39">
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="24"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="23"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="39">
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="24"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="23"/>
     </row>
     <row r="34" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="44"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="39">
+      <c r="B34" s="43"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
     </row>
     <row r="35" spans="2:16" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="19" t="s">
-        <v>22</v>
+      <c r="B35" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1477,8 +1486,8 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
-        <v>18</v>
+      <c r="B37" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1495,8 +1504,8 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
-        <v>64</v>
+      <c r="B38" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1513,8 +1522,8 @@
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>65</v>
+      <c r="B39" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1547,10 +1556,10 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="36"/>
+      <c r="B41" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="35"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1581,45 +1590,45 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="I43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10"/>
+      <c r="I43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="11"/>
+      <c r="B44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="11"/>
-      <c r="I45" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="B45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="10"/>
+      <c r="I45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -1641,10 +1650,10 @@
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
@@ -2015,8 +2024,12 @@
       <c r="O72" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
